--- a/Final Report Parameters.xlsx
+++ b/Final Report Parameters.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="51">
   <si>
     <t>Best Values per parameter:</t>
   </si>
@@ -34,31 +34,22 @@
     <t>ForecastValidationSensitivity</t>
   </si>
   <si>
-    <t>['3.5']</t>
-  </si>
-  <si>
     <t>WMAPE and bias for all runs:</t>
   </si>
   <si>
+    <t>Permutation Number</t>
+  </si>
+  <si>
     <t>parameter_name</t>
   </si>
   <si>
     <t>value</t>
   </si>
   <si>
-    <t>wmape</t>
-  </si>
-  <si>
-    <t>bias</t>
-  </si>
-  <si>
-    <t>Best?</t>
-  </si>
-  <si>
-    <t>Best</t>
-  </si>
-  <si>
-    <t>NOT Best</t>
+    <t>WMAPE</t>
+  </si>
+  <si>
+    <t>Bias</t>
   </si>
   <si>
     <t>Profile parameters: Before and after</t>
@@ -166,13 +157,10 @@
     <t>25</t>
   </si>
   <si>
+    <t>4.5</t>
+  </si>
+  <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>WMAPE</t>
-  </si>
-  <si>
-    <t>Bias</t>
   </si>
   <si>
     <t>Initial</t>
@@ -246,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -254,7 +242,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,13 +562,13 @@
         <v>3</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -595,7 +582,7 @@
         <v>0.131977862914509</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H3" s="1">
         <v>0.1526</v>
@@ -609,13 +596,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="C4" s="1">
         <v>0.131977862914509</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H4" s="1">
         <v>0.131977862914509</v>
@@ -626,206 +613,206 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="4" t="s">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="4">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="5">
+      <c r="D9" s="1">
         <v>0.131977862914509</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E9">
         <v>-0.0565708245097057</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" t="s">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="B10">
+      <c r="C10" s="1">
         <v>4.5</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D10" s="1">
         <v>0.131977862914509</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10">
         <v>-0.0565708245097057</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
+      <c r="B15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -833,98 +820,98 @@
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Final Report Parameters.xlsx
+++ b/Final Report Parameters.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="58">
   <si>
     <t>Best Values per parameter:</t>
   </si>
@@ -34,133 +34,154 @@
     <t>ForecastValidationSensitivity</t>
   </si>
   <si>
+    <t>OutlierSensitivity</t>
+  </si>
+  <si>
+    <t>OutliersPercent</t>
+  </si>
+  <si>
+    <t>EnableNonNegRegr</t>
+  </si>
+  <si>
+    <t>['3.5']</t>
+  </si>
+  <si>
+    <t>['1']</t>
+  </si>
+  <si>
     <t>WMAPE and bias for all runs:</t>
   </si>
   <si>
-    <t>Permutation Number</t>
-  </si>
-  <si>
     <t>parameter_name</t>
   </si>
   <si>
     <t>value</t>
   </si>
   <si>
+    <t>wmape</t>
+  </si>
+  <si>
+    <t>bias</t>
+  </si>
+  <si>
+    <t>Best?</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>NOT Best</t>
+  </si>
+  <si>
+    <t>Profile parameters: Before and after</t>
+  </si>
+  <si>
+    <t>ForecastingParameterName</t>
+  </si>
+  <si>
+    <t>ForecastingParameterValue Initial</t>
+  </si>
+  <si>
+    <t>ForecastingParameterValue Final</t>
+  </si>
+  <si>
+    <t>RemoveExtremeOutlier</t>
+  </si>
+  <si>
+    <t>EnableFitValidation</t>
+  </si>
+  <si>
+    <t>EnableNaiveForecast</t>
+  </si>
+  <si>
+    <t>WriteFit</t>
+  </si>
+  <si>
+    <t>FillMissingMethod</t>
+  </si>
+  <si>
+    <t>GlobalAllocationPeriods</t>
+  </si>
+  <si>
+    <t>IntermitCriterion</t>
+  </si>
+  <si>
+    <t>DetectOutlier</t>
+  </si>
+  <si>
+    <t>EnableForecastValidation</t>
+  </si>
+  <si>
+    <t>LaunchDateMeasure</t>
+  </si>
+  <si>
+    <t>DiscontinueDateMeasure</t>
+  </si>
+  <si>
+    <t>ForecastOutputFilter</t>
+  </si>
+  <si>
+    <t>ForecastTestPeriod</t>
+  </si>
+  <si>
+    <t>PeriodsUntilActive</t>
+  </si>
+  <si>
+    <t>PeriodsUntilInactive</t>
+  </si>
+  <si>
+    <t>FitTestPeriod</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>4277</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>4278</t>
+  </si>
+  <si>
+    <t>300000006583060</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>365</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>WMAPE</t>
   </si>
   <si>
     <t>Bias</t>
-  </si>
-  <si>
-    <t>Profile parameters: Before and after</t>
-  </si>
-  <si>
-    <t>ForecastingParameterName</t>
-  </si>
-  <si>
-    <t>ForecastingParameterValue Initial</t>
-  </si>
-  <si>
-    <t>ForecastingParameterValue Final</t>
-  </si>
-  <si>
-    <t>OutlierSensitivity</t>
-  </si>
-  <si>
-    <t>RemoveExtremeOutlier</t>
-  </si>
-  <si>
-    <t>EnableFitValidation</t>
-  </si>
-  <si>
-    <t>EnableNaiveForecast</t>
-  </si>
-  <si>
-    <t>WriteFit</t>
-  </si>
-  <si>
-    <t>FillMissingMethod</t>
-  </si>
-  <si>
-    <t>GlobalAllocationPeriods</t>
-  </si>
-  <si>
-    <t>IntermitCriterion</t>
-  </si>
-  <si>
-    <t>DetectOutlier</t>
-  </si>
-  <si>
-    <t>EnableForecastValidation</t>
-  </si>
-  <si>
-    <t>LaunchDateMeasure</t>
-  </si>
-  <si>
-    <t>DiscontinueDateMeasure</t>
-  </si>
-  <si>
-    <t>ForecastOutputFilter</t>
-  </si>
-  <si>
-    <t>ForecastTestPeriod</t>
-  </si>
-  <si>
-    <t>EnableNonNegRegr</t>
-  </si>
-  <si>
-    <t>PeriodsUntilActive</t>
-  </si>
-  <si>
-    <t>PeriodsUntilInactive</t>
-  </si>
-  <si>
-    <t>OutliersPercent</t>
-  </si>
-  <si>
-    <t>FitTestPeriod</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>4277</t>
-  </si>
-  <si>
-    <t>4278</t>
-  </si>
-  <si>
-    <t>300000006583060</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>365</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>Type</t>
   </si>
   <si>
     <t>Initial</t>
@@ -234,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -242,6 +263,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,7 +558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,13 +584,13 @@
         <v>3</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -579,10 +601,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>0.131977862914509</v>
+        <v>0.1102916029004833</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H3" s="1">
         <v>0.1526</v>
@@ -596,217 +618,253 @@
         <v>5</v>
       </c>
       <c r="B4">
+        <v>3.5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.1102916029004833</v>
+      </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.10847620988776</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-0.08195868987698164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.1086143939420111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.10847620988776</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.10847620988776</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.1102916029004833</v>
+      </c>
+      <c r="D12" s="5">
+        <v>-0.08710431859715548</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>1.7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.1106353357354328</v>
+      </c>
+      <c r="D13" s="1">
+        <v>-0.08744805143210499</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
         <v>4.5</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.131977862914509</v>
-      </c>
-      <c r="G4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.131977862914509</v>
-      </c>
-      <c r="I4" s="1">
-        <v>-0.0565708245097057</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="2" t="s">
+      <c r="C14" s="1">
+        <v>0.1204377670838674</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-0.1008259951842857</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.1221883863211605</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-0.1027821632022773</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="3" t="s">
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.1086143939420111</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-0.07888754927125184</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.1092396767874971</v>
+      </c>
+      <c r="D17" s="1">
+        <v>-0.08628557807571795</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B18" s="4">
+        <v>5</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.10847620988776</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-0.08195868987698164</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
+      <c r="B19">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.131977862914509</v>
-      </c>
-      <c r="E9">
-        <v>-0.0565708245097057</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C19" s="1">
+        <v>0.10847620988776</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-0.08195868987698164</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.131977862914509</v>
-      </c>
-      <c r="E10">
-        <v>-0.0565708245097057</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>39</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
         <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>41</v>
@@ -815,64 +873,64 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>43</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
         <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>44</v>
@@ -883,35 +941,134 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" t="s">
-        <v>39</v>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Final Report Parameters.xlsx
+++ b/Final Report Parameters.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="53">
   <si>
     <t>Best Values per parameter:</t>
   </si>
@@ -31,120 +31,108 @@
     <t>FitValidationSensitivity</t>
   </si>
   <si>
+    <t>WMAPE and bias for all runs:</t>
+  </si>
+  <si>
+    <t>parameter_name</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>wmape</t>
+  </si>
+  <si>
+    <t>bias</t>
+  </si>
+  <si>
+    <t>Best?</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>Profile parameters: Before and after</t>
+  </si>
+  <si>
+    <t>ForecastingParameterName</t>
+  </si>
+  <si>
+    <t>ForecastingParameterValue Initial</t>
+  </si>
+  <si>
+    <t>ForecastingParameterValue Final</t>
+  </si>
+  <si>
     <t>ForecastValidationSensitivity</t>
   </si>
   <si>
     <t>OutlierSensitivity</t>
   </si>
   <si>
+    <t>RemoveExtremeOutlier</t>
+  </si>
+  <si>
+    <t>EnableFitValidation</t>
+  </si>
+  <si>
+    <t>EnableNaiveForecast</t>
+  </si>
+  <si>
+    <t>WriteFit</t>
+  </si>
+  <si>
+    <t>FillMissingMethod</t>
+  </si>
+  <si>
+    <t>GlobalAllocationPeriods</t>
+  </si>
+  <si>
+    <t>IntermitCriterion</t>
+  </si>
+  <si>
+    <t>DetectOutlier</t>
+  </si>
+  <si>
+    <t>EnableForecastValidation</t>
+  </si>
+  <si>
+    <t>LaunchDateMeasure</t>
+  </si>
+  <si>
+    <t>DiscontinueDateMeasure</t>
+  </si>
+  <si>
+    <t>ForecastOutputFilter</t>
+  </si>
+  <si>
+    <t>ForecastTestPeriod</t>
+  </si>
+  <si>
+    <t>EnableNonNegRegr</t>
+  </si>
+  <si>
+    <t>PeriodsUntilActive</t>
+  </si>
+  <si>
+    <t>PeriodsUntilInactive</t>
+  </si>
+  <si>
     <t>OutliersPercent</t>
   </si>
   <si>
-    <t>EnableNonNegRegr</t>
-  </si>
-  <si>
-    <t>['3.5']</t>
-  </si>
-  <si>
-    <t>['1']</t>
-  </si>
-  <si>
-    <t>WMAPE and bias for all runs:</t>
-  </si>
-  <si>
-    <t>parameter_name</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>wmape</t>
-  </si>
-  <si>
-    <t>bias</t>
-  </si>
-  <si>
-    <t>Best?</t>
-  </si>
-  <si>
-    <t>Best</t>
-  </si>
-  <si>
-    <t>NOT Best</t>
-  </si>
-  <si>
-    <t>Profile parameters: Before and after</t>
-  </si>
-  <si>
-    <t>ForecastingParameterName</t>
-  </si>
-  <si>
-    <t>ForecastingParameterValue Initial</t>
-  </si>
-  <si>
-    <t>ForecastingParameterValue Final</t>
-  </si>
-  <si>
-    <t>RemoveExtremeOutlier</t>
-  </si>
-  <si>
-    <t>EnableFitValidation</t>
-  </si>
-  <si>
-    <t>EnableNaiveForecast</t>
-  </si>
-  <si>
-    <t>WriteFit</t>
-  </si>
-  <si>
-    <t>FillMissingMethod</t>
-  </si>
-  <si>
-    <t>GlobalAllocationPeriods</t>
-  </si>
-  <si>
-    <t>IntermitCriterion</t>
-  </si>
-  <si>
-    <t>DetectOutlier</t>
-  </si>
-  <si>
-    <t>EnableForecastValidation</t>
-  </si>
-  <si>
-    <t>LaunchDateMeasure</t>
-  </si>
-  <si>
-    <t>DiscontinueDateMeasure</t>
-  </si>
-  <si>
-    <t>ForecastOutputFilter</t>
-  </si>
-  <si>
-    <t>ForecastTestPeriod</t>
-  </si>
-  <si>
-    <t>PeriodsUntilActive</t>
-  </si>
-  <si>
-    <t>PeriodsUntilInactive</t>
-  </si>
-  <si>
     <t>FitTestPeriod</t>
   </si>
   <si>
     <t>3.5</t>
   </si>
   <si>
-    <t>2.5</t>
+    <t>1</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>182</t>
   </si>
   <si>
@@ -154,9 +142,6 @@
     <t>4277</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
     <t>4278</t>
   </si>
   <si>
@@ -169,10 +154,10 @@
     <t>365</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>1.7</t>
   </si>
   <si>
     <t>Type</t>
@@ -558,7 +543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -584,13 +569,13 @@
         <v>3</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -598,13 +583,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="C3" s="1">
-        <v>0.1102916029004833</v>
+        <v>0.1088199427227095</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H3" s="1">
         <v>0.1526</v>
@@ -614,461 +599,300 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" t="s">
+      <c r="G4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.1088199427227095</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-0.08230242271193115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>3.5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.1102916029004833</v>
-      </c>
-      <c r="G4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.10847620988776</v>
-      </c>
-      <c r="I4" s="1">
-        <v>-0.08195868987698164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.1086143939420111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.10847620988776</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.10847620988776</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="2" t="s">
+      <c r="D7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.1088199427227095</v>
+      </c>
+      <c r="D8" s="5">
+        <v>-0.08230242271193115</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.1102916029004833</v>
-      </c>
-      <c r="D12" s="5">
-        <v>-0.08710431859715548</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>1.7</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.1106353357354328</v>
-      </c>
-      <c r="D13" s="1">
-        <v>-0.08744805143210499</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14">
-        <v>4.5</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.1204377670838674</v>
-      </c>
-      <c r="D14" s="1">
-        <v>-0.1008259951842857</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0.1221883863211605</v>
-      </c>
-      <c r="D15" s="1">
-        <v>-0.1027821632022773</v>
-      </c>
-      <c r="E15" t="s">
         <v>18</v>
       </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0.1086143939420111</v>
-      </c>
-      <c r="D16" s="5">
-        <v>-0.07888754927125184</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0.1092396767874971</v>
-      </c>
-      <c r="D17" s="1">
-        <v>-0.08628557807571795</v>
-      </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="4">
-        <v>5</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0.10847620988776</v>
-      </c>
-      <c r="D18" s="5">
-        <v>-0.08195868987698164</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0.10847620988776</v>
-      </c>
-      <c r="D19" s="1">
-        <v>-0.08195868987698164</v>
-      </c>
-      <c r="E19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
         <v>39</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
